--- a/ServerGrpc/Data/DATA_CHARACTER.xlsx
+++ b/ServerGrpc/Data/DATA_CHARACTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GrpcTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A080A6-F327-43AB-8F28-37DF30FDBD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598CAA0A-A131-4494-ADAA-6A6D8237FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="3255" windowWidth="25065" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,39 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfgg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfg</t>
+    <t>ATT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -446,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,11 +457,11 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -497,19 +469,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -517,19 +489,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -537,19 +509,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="C6" s="2">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,19 +529,119 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="C7" s="2">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="2">
         <v>140</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>160</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C11" s="2">
+        <v>160</v>
+      </c>
+      <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>180</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
         <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
